--- a/biology/Médecine/Analogue_de_nucléosides/Analogue_de_nucléosides.xlsx
+++ b/biology/Médecine/Analogue_de_nucléosides/Analogue_de_nucléosides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Analogue_de_nucl%C3%A9osides</t>
+          <t>Analogue_de_nucléosides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les analogues de nucléosides sont une gamme de produits antiviraux utilisés pour prévenir la réplication virale dans les cellules infectées. 
 Le plus communément utilisé est l'aciclovir, bien que son inclusion dans cette catégorie ne soit pas méritée car il contient seulement une structure nucléosidique partielle,  le cycle du sucre étant remplacé par une structure en chaîne ouverte. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Analogue_de_nucl%C3%A9osides</t>
+          <t>Analogue_de_nucléosides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces agents peuvent être utilisés contre les virus de l'hépatite B, l'herpès simplex et le virus de l'immunodéficience humaine (VIH). 
 Une fois phosphorylés, ils se comportent comme des antimétabolites en étant assez semblables aux nucléosides pour être intégrés dans les brins d'ADN viraux en cours de réplication, mais ils agissent comme agents terminaux de chaîne et arrêtent l'action de l'ADN polymérase virale. Ils ne sont toutefois pas spécifiques à l'ADN viral et affectent également l'ADN mitochondrial. C'est pour cela qu'ils ont des effets secondaires tels qu'une aplasie médullaire. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analogue_de_nucl%C3%A9osides</t>
+          <t>Analogue_de_nucléosides</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Médicaments contenant un analogue nucléosidique:
 Analogues de l'adénosine C10H13N5O4 / adénosine triphosphate (ATP) C10H16N5O13P3
